--- a/media/templates/water_clients.xlsx
+++ b/media/templates/water_clients.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>names</t>
   </si>
@@ -43,6 +43,12 @@
   </si>
   <si>
     <t>email</t>
+  </si>
+  <si>
+    <t>meter_num</t>
+  </si>
+  <si>
+    <t>phone_number2</t>
   </si>
 </sst>
 </file>
@@ -381,23 +387,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:K1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="14.85546875" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="14.85546875" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -405,24 +411,30 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>2</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>8</v>
       </c>
     </row>
